--- a/team_specific_matrix/LeTourneau_B.xlsx
+++ b/team_specific_matrix/LeTourneau_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05555555555555555</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="F8">
-        <v>0.05555555555555555</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="R8">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="S8">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1111111111111111</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.4444444444444444</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.3333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06122448979591837</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08163265306122448</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.02040816326530612</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1836734693877551</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.3673469387755102</v>
+        <v>0.2743362831858407</v>
       </c>
       <c r="R10">
-        <v>0.1224489795918367</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="S10">
-        <v>0.163265306122449</v>
+        <v>0.2654867256637168</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.25</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I15">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.125</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.125</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1935483870967742</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="I17">
-        <v>0.1612903225806452</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="J17">
-        <v>0.3225806451612903</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="K17">
-        <v>0.03225806451612903</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06451612903225806</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.2258064516129032</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2647058823529412</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="I19">
-        <v>0.05882352941176471</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J19">
-        <v>0.5294117647058824</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="K19">
-        <v>0.02941176470588235</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08823529411764706</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.02941176470588235</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
   </sheetData>
